--- a/文档/数据字典_答辩_final.xlsx
+++ b/文档/数据字典_答辩_final.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="238">
   <si>
     <t>数据名称</t>
   </si>
@@ -66,9 +67,6 @@
     <t>用户提交订单的时间</t>
   </si>
   <si>
-    <t>日期时间</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -124,9 +122,6 @@
   </si>
   <si>
     <t>该商品的生产日期</t>
-  </si>
-  <si>
-    <t>日期</t>
   </si>
   <si>
     <t>prod_date</t>
@@ -1022,32 +1017,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>字符串(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>整型(7)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int(11)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整型(9)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1090,23 +1064,6 @@
   </si>
   <si>
     <r>
-      <t>字符串(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>整型(</t>
     </r>
     <r>
@@ -1124,6 +1081,70 @@
   </si>
   <si>
     <t>int(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺省值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许空值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间(年-月-日-时间）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串(16)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型(9)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串(50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1197,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1210,6 +1231,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1488,15 +1511,15 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="52.75" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="25.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
@@ -1537,25 +1560,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1569,16 +1592,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -1589,48 +1612,48 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1644,80 +1667,80 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1730,22 +1753,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -1756,22 +1779,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1785,22 +1808,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1814,83 +1837,83 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="I15" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1903,25 +1926,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -1929,22 +1952,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
@@ -1955,22 +1978,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -1981,22 +2004,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -2007,22 +2030,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F21" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -2033,22 +2056,22 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -2059,22 +2082,22 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
@@ -2085,22 +2108,22 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -2114,22 +2137,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -2140,22 +2163,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="F26" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -2166,25 +2189,25 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2197,22 +2220,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -2223,22 +2246,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="F30" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -2249,22 +2272,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2275,28 +2298,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="E32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2309,22 +2332,22 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="E34" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -2335,22 +2358,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -2361,22 +2384,22 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -2387,22 +2410,22 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -2413,22 +2436,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
@@ -2450,22 +2473,22 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -2476,22 +2499,22 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -2502,22 +2525,22 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -2528,22 +2551,22 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -2554,22 +2577,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -2580,22 +2603,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -2606,54 +2629,54 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="F47" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,22 +2689,22 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
@@ -2692,22 +2715,22 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -2718,22 +2741,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -2744,22 +2767,22 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -2773,4 +2796,819 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G37" sqref="A37:G41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/文档/数据字典_答辩_final.xlsx
+++ b/文档/数据字典_答辩_final.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="235">
   <si>
     <t>数据名称</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>地址街道</t>
-  </si>
-  <si>
-    <t>该地址所在的街道</t>
   </si>
   <si>
     <t>详细地址</t>
@@ -693,6 +690,70 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>province</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>neighborhood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>district</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属用户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该地址对应的用户的id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_sale_man</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>varchar(</t>
     </r>
@@ -720,97 +781,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>province</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>city</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>neighborhood</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>district</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属用户id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>该地址对应的用户的id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_sale_man</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>varchar(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>255</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int(11)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1141,10 +1111,6 @@
   </si>
   <si>
     <t>字符串(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串(50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1508,11 +1474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1560,25 +1526,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1592,13 +1558,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
@@ -1618,42 +1584,42 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1667,80 +1633,80 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1753,22 +1719,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -1785,16 +1751,16 @@
         <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1814,16 +1780,16 @@
         <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1837,83 +1803,83 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1932,19 +1898,19 @@
         <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -1958,16 +1924,16 @@
         <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
@@ -1984,16 +1950,16 @@
         <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -2004,22 +1970,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -2030,22 +1996,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -2056,22 +2022,22 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -2088,7 +2054,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>27</v>
@@ -2114,16 +2080,16 @@
         <v>37</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -2143,7 +2109,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>27</v>
@@ -2152,7 +2118,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -2169,7 +2135,7 @@
         <v>42</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>27</v>
@@ -2178,7 +2144,7 @@
         <v>43</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -2189,25 +2155,25 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2226,16 +2192,16 @@
         <v>45</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="F29" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -2252,16 +2218,16 @@
         <v>47</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -2281,13 +2247,13 @@
         <v>18</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2298,28 +2264,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="E32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2338,16 +2304,16 @@
         <v>52</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -2364,16 +2330,16 @@
         <v>55</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -2390,16 +2356,16 @@
         <v>57</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -2416,16 +2382,16 @@
         <v>59</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -2442,16 +2408,16 @@
         <v>61</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
@@ -2479,16 +2445,16 @@
         <v>63</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -2505,16 +2471,16 @@
         <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -2531,16 +2497,16 @@
         <v>68</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -2557,16 +2523,16 @@
         <v>70</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -2577,137 +2543,137 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="C45" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>64</v>
+        <v>213</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" t="s">
-        <v>12</v>
+        <v>189</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="I46" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="F48" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
@@ -2715,22 +2681,22 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -2741,53 +2707,27 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2817,42 +2757,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
@@ -2861,16 +2801,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
@@ -2882,16 +2822,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
@@ -2903,16 +2843,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
@@ -2924,16 +2864,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
@@ -2945,16 +2885,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
@@ -2966,7 +2906,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>34</v>
@@ -2987,16 +2927,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -3010,7 +2950,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>40</v>
@@ -3019,7 +2959,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>12</v>
@@ -3031,7 +2971,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>43</v>
@@ -3040,7 +2980,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>12</v>
@@ -3052,60 +2992,60 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>11</v>
@@ -3117,7 +3057,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>48</v>
@@ -3126,7 +3066,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>12</v>
@@ -3138,16 +3078,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
@@ -3159,46 +3099,46 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3206,13 +3146,13 @@
         <v>53</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>11</v>
@@ -3227,13 +3167,13 @@
         <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>12</v>
@@ -3248,13 +3188,13 @@
         <v>53</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>12</v>
@@ -3269,13 +3209,13 @@
         <v>53</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>12</v>
@@ -3290,13 +3230,13 @@
         <v>53</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>12</v>
@@ -3310,25 +3250,25 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3336,13 +3276,13 @@
         <v>64</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>11</v>
@@ -3357,13 +3297,13 @@
         <v>64</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>12</v>
@@ -3378,13 +3318,13 @@
         <v>64</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>12</v>
@@ -3399,13 +3339,13 @@
         <v>64</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>12</v>
@@ -3420,13 +3360,13 @@
         <v>64</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>12</v>
@@ -3441,13 +3381,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>12</v>
@@ -3459,81 +3399,81 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="C35" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>11</v>
@@ -3545,16 +3485,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>12</v>
@@ -3566,16 +3506,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>12</v>
@@ -3587,16 +3527,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>12</v>
